--- a/outputs-HGR-r202/g__Slackia_A.xlsx
+++ b/outputs-HGR-r202/g__Slackia_A.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,45 +442,40 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>1-s__</t>
+          <t>1-s__Slackia_A isoflavoniconvertens</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2-s__Slackia_A isoflavoniconvertens</t>
+          <t>2-s__Slackia_A piriformis</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>3-s__Slackia_A piriformis</t>
+          <t>3-s__Slackia_A sp900553655</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>4-s__Slackia_A sp900553655</t>
+          <t>4-s__Slackia_A sp900553775</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>5-s__Slackia_A sp900553775</t>
+          <t>5-s__Slackia_A sp900555495</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>6-s__Slackia_A sp900555495</t>
+          <t>max</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>rejection-f</t>
         </is>
@@ -493,32 +488,29 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.009527471756980564</v>
+        <v>0.9952174837202765</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9889114816150238</v>
+        <v>2.220202931599046e-14</v>
       </c>
       <c r="D2" t="n">
-        <v>7.59332927353462e-05</v>
+        <v>1.068090840356397e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>8.275706731376461e-05</v>
+        <v>0.002478094590519537</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0001753436890616101</v>
+        <v>0.002293740780778241</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001227012578884799</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.9889114816150238</v>
+        <v>0.9952174837202765</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>s__Slackia_A isoflavoniconvertens</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>s__Slackia_A isoflavoniconvertens</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
         <is>
           <t>s__Slackia_A isoflavoniconvertens</t>
         </is>
@@ -531,32 +523,29 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.009012786682447056</v>
+        <v>0.9872624088462776</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9818428296809094</v>
+        <v>2.220079675269039e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0001730975378167723</v>
+        <v>1.725836939938286e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>7.955419669603837e-05</v>
+        <v>0.002735781688338325</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003250600152163447</v>
+        <v>0.009984551095962418</v>
       </c>
       <c r="G3" t="n">
-        <v>0.005641131749967106</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.9818428296809094</v>
+        <v>0.9872624088462776</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>s__Slackia_A isoflavoniconvertens</t>
+        </is>
       </c>
       <c r="I3" t="inlineStr">
-        <is>
-          <t>s__Slackia_A isoflavoniconvertens</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
         <is>
           <t>s__Slackia_A isoflavoniconvertens</t>
         </is>
@@ -569,32 +558,29 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.005393699880142606</v>
+        <v>0.9894251588773676</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9869273017509239</v>
+        <v>2.220062506577167e-14</v>
       </c>
       <c r="D4" t="n">
-        <v>7.151011123227414e-05</v>
+        <v>2.717152309247274e-06</v>
       </c>
       <c r="E4" t="n">
-        <v>6.99315244076931e-06</v>
+        <v>0.002156241368640882</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0003757515952708327</v>
+        <v>0.008415882601660192</v>
       </c>
       <c r="G4" t="n">
-        <v>0.007224743509989601</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.9869273017509239</v>
+        <v>0.9894251588773676</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>s__Slackia_A isoflavoniconvertens</t>
+        </is>
       </c>
       <c r="I4" t="inlineStr">
-        <is>
-          <t>s__Slackia_A isoflavoniconvertens</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
         <is>
           <t>s__Slackia_A isoflavoniconvertens</t>
         </is>
@@ -607,32 +593,29 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.006566374221196571</v>
+        <v>0.992838463236156</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9872953525308173</v>
+        <v>2.22029652686353e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>9.042358724590636e-05</v>
+        <v>6.411505888571231e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00204898941679233</v>
+        <v>0.004060468045050066</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0001431808186046271</v>
+        <v>0.00303695365988592</v>
       </c>
       <c r="G5" t="n">
-        <v>0.003855679425343309</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.9872953525308173</v>
+        <v>0.992838463236156</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>s__Slackia_A isoflavoniconvertens</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
-        <is>
-          <t>s__Slackia_A isoflavoniconvertens</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
         <is>
           <t>s__Slackia_A isoflavoniconvertens</t>
         </is>
@@ -645,32 +628,29 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01967132032318111</v>
+        <v>0.9889961606863019</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9745140009199968</v>
+        <v>2.219662231803417e-14</v>
       </c>
       <c r="D6" t="n">
-        <v>6.674228843518786e-05</v>
+        <v>6.455973273472851e-06</v>
       </c>
       <c r="E6" t="n">
-        <v>5.116220134391457e-06</v>
+        <v>0.000423771914268151</v>
       </c>
       <c r="F6" t="n">
-        <v>5.442138059125618e-05</v>
+        <v>0.01057361142613421</v>
       </c>
       <c r="G6" t="n">
-        <v>0.005688398867661192</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.9745140009199968</v>
+        <v>0.9889961606863019</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>s__Slackia_A isoflavoniconvertens</t>
+        </is>
       </c>
       <c r="I6" t="inlineStr">
-        <is>
-          <t>s__Slackia_A isoflavoniconvertens</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
         <is>
           <t>s__Slackia_A isoflavoniconvertens</t>
         </is>
@@ -683,32 +663,29 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01117895021926255</v>
+        <v>0.992052883308064</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9846005572086913</v>
+        <v>2.220262684995794e-14</v>
       </c>
       <c r="D7" t="n">
-        <v>7.627915916277464e-05</v>
+        <v>2.665606419044108e-06</v>
       </c>
       <c r="E7" t="n">
-        <v>1.277374569546676e-06</v>
+        <v>0.002727354289266675</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0002982415737004527</v>
+        <v>0.005217096796228156</v>
       </c>
       <c r="G7" t="n">
-        <v>0.003844694464613212</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.9846005572086913</v>
+        <v>0.992052883308064</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>s__Slackia_A isoflavoniconvertens</t>
+        </is>
       </c>
       <c r="I7" t="inlineStr">
-        <is>
-          <t>s__Slackia_A isoflavoniconvertens</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
         <is>
           <t>s__Slackia_A isoflavoniconvertens</t>
         </is>
@@ -721,32 +698,29 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.002469243428616775</v>
+        <v>0.9878261862907881</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9819019401894287</v>
+        <v>2.219642920141404e-14</v>
       </c>
       <c r="D8" t="n">
-        <v>6.328670548688551e-05</v>
+        <v>4.642386291621516e-06</v>
       </c>
       <c r="E8" t="n">
-        <v>2.801556720938187e-05</v>
+        <v>0.0005998891471281475</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0001190727770187917</v>
+        <v>0.01156928217577002</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01541844133223948</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.9819019401894287</v>
+        <v>0.9878261862907881</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>s__Slackia_A isoflavoniconvertens</t>
+        </is>
       </c>
       <c r="I8" t="inlineStr">
-        <is>
-          <t>s__Slackia_A isoflavoniconvertens</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
         <is>
           <t>s__Slackia_A isoflavoniconvertens</t>
         </is>
@@ -759,32 +733,29 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.005456127026289446</v>
+        <v>0.9933127155880676</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9864469109819877</v>
+        <v>2.220189737170077e-14</v>
       </c>
       <c r="D9" t="n">
-        <v>6.990669330734321e-05</v>
+        <v>5.594891042665874e-06</v>
       </c>
       <c r="E9" t="n">
-        <v>2.001317398337248e-05</v>
+        <v>0.002007962971418063</v>
       </c>
       <c r="F9" t="n">
-        <v>9.766556646453027e-05</v>
+        <v>0.00467372654944956</v>
       </c>
       <c r="G9" t="n">
-        <v>0.007909376557967772</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.9864469109819877</v>
+        <v>0.9933127155880676</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>s__Slackia_A isoflavoniconvertens</t>
+        </is>
       </c>
       <c r="I9" t="inlineStr">
-        <is>
-          <t>s__Slackia_A isoflavoniconvertens</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
         <is>
           <t>s__Slackia_A isoflavoniconvertens</t>
         </is>
@@ -797,32 +768,29 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.002519725396333402</v>
+        <v>0.9914173972528658</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9786989218156336</v>
+        <v>2.2201460847058e-14</v>
       </c>
       <c r="D10" t="n">
-        <v>5.976585736033995e-05</v>
+        <v>3.643460589003476e-06</v>
       </c>
       <c r="E10" t="n">
-        <v>1.848774196028598e-05</v>
+        <v>0.002074530384724875</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0002195668915219552</v>
+        <v>0.006504428901798169</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01848353229719047</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.9786989218156336</v>
+        <v>0.9914173972528658</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>s__Slackia_A isoflavoniconvertens</t>
+        </is>
       </c>
       <c r="I10" t="inlineStr">
-        <is>
-          <t>s__Slackia_A isoflavoniconvertens</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
         <is>
           <t>s__Slackia_A isoflavoniconvertens</t>
         </is>
@@ -835,32 +803,29 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.009758318548297024</v>
+        <v>0.9664456232222292</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9871336473981027</v>
+        <v>2.2186422499899e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0001107431317801712</v>
+        <v>2.328107299735218e-06</v>
       </c>
       <c r="E11" t="n">
-        <v>2.951989724685933e-06</v>
+        <v>0.03303447311656346</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001645836432132239</v>
+        <v>0.0005175755538853682</v>
       </c>
       <c r="G11" t="n">
-        <v>0.001348502499963059</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.9871336473981027</v>
+        <v>0.9664456232222292</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>s__Slackia_A isoflavoniconvertens</t>
+        </is>
       </c>
       <c r="I11" t="inlineStr">
-        <is>
-          <t>s__Slackia_A isoflavoniconvertens</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
         <is>
           <t>s__Slackia_A isoflavoniconvertens</t>
         </is>

--- a/outputs-HGR-r202/g__Slackia_A.xlsx
+++ b/outputs-HGR-r202/g__Slackia_A.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,11 @@
           <t>s__Slackia_A piriformis</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>s__Slackia_A piriformis(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -535,6 +545,11 @@
           <t>s__Slackia_A isoflavoniconvertens</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>s__Slackia_A isoflavoniconvertens</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -565,6 +580,11 @@
           <t>s__Slackia_A isoflavoniconvertens</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>s__Slackia_A isoflavoniconvertens</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -595,6 +615,11 @@
           <t>s__Slackia_A isoflavoniconvertens</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>s__Slackia_A isoflavoniconvertens</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -625,6 +650,11 @@
           <t>s__Slackia_A isoflavoniconvertens</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>s__Slackia_A isoflavoniconvertens</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -655,6 +685,11 @@
           <t>s__Slackia_A isoflavoniconvertens</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>s__Slackia_A isoflavoniconvertens</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -685,6 +720,11 @@
           <t>s__Slackia_A isoflavoniconvertens</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>s__Slackia_A isoflavoniconvertens</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -715,6 +755,11 @@
           <t>s__Slackia_A isoflavoniconvertens</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>s__Slackia_A isoflavoniconvertens</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -745,6 +790,11 @@
           <t>s__Slackia_A isoflavoniconvertens</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>s__Slackia_A isoflavoniconvertens</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -775,6 +825,11 @@
           <t>s__Slackia_A isoflavoniconvertens</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>s__Slackia_A isoflavoniconvertens</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -801,6 +856,11 @@
         <v>0.9664456232222292</v>
       </c>
       <c r="H12" t="inlineStr">
+        <is>
+          <t>s__Slackia_A isoflavoniconvertens</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>s__Slackia_A isoflavoniconvertens</t>
         </is>

--- a/outputs-HGR-r202/g__Slackia_A.xlsx
+++ b/outputs-HGR-r202/g__Slackia_A.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,61 +484,61 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25763.fa</t>
+          <t>even_MAG-GUT25961.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.475735422829165</v>
+        <v>0.9952174837202765</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4893250440778263</v>
+        <v>2.220202931599046e-14</v>
       </c>
       <c r="D2" t="n">
-        <v>2.623893398182331e-05</v>
+        <v>1.068090840356397e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0001270306404798665</v>
+        <v>0.002478094590519537</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03478626351854699</v>
+        <v>0.002293740780778241</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4893250440778263</v>
+        <v>0.9952174837202765</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>s__Slackia_A piriformis</t>
+          <t>s__Slackia_A isoflavoniconvertens</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>s__Slackia_A piriformis(reject)</t>
+          <t>s__Slackia_A isoflavoniconvertens</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25961.fa</t>
+          <t>even_MAG-GUT26205.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9952174837202765</v>
+        <v>0.9872624088462776</v>
       </c>
       <c r="C3" t="n">
-        <v>2.220202931599046e-14</v>
+        <v>2.220079675269039e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>1.068090840356397e-05</v>
+        <v>1.725836939938286e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>0.002478094590519537</v>
+        <v>0.002735781688338325</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002293740780778241</v>
+        <v>0.009984551095962418</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9952174837202765</v>
+        <v>0.9872624088462776</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -554,26 +554,26 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26205.fa</t>
+          <t>even_MAG-GUT26387.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9872624088462776</v>
+        <v>0.9894251588773676</v>
       </c>
       <c r="C4" t="n">
-        <v>2.220079675269039e-14</v>
+        <v>2.220062506577167e-14</v>
       </c>
       <c r="D4" t="n">
-        <v>1.725836939938286e-05</v>
+        <v>2.717152309247274e-06</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002735781688338325</v>
+        <v>0.002156241368640882</v>
       </c>
       <c r="F4" t="n">
-        <v>0.009984551095962418</v>
+        <v>0.008415882601660192</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9872624088462776</v>
+        <v>0.9894251588773676</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -589,26 +589,26 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26387.fa</t>
+          <t>even_MAG-GUT26459.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9894251588773676</v>
+        <v>0.992838463236156</v>
       </c>
       <c r="C5" t="n">
-        <v>2.220062506577167e-14</v>
+        <v>2.22029652686353e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>2.717152309247274e-06</v>
+        <v>6.411505888571231e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>0.002156241368640882</v>
+        <v>0.004060468045050066</v>
       </c>
       <c r="F5" t="n">
-        <v>0.008415882601660192</v>
+        <v>0.00303695365988592</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9894251588773676</v>
+        <v>0.992838463236156</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -624,26 +624,26 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26459.fa</t>
+          <t>even_MAG-GUT26562.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.992838463236156</v>
+        <v>0.9889961606863019</v>
       </c>
       <c r="C6" t="n">
-        <v>2.22029652686353e-14</v>
+        <v>2.219662231803417e-14</v>
       </c>
       <c r="D6" t="n">
-        <v>6.411505888571231e-05</v>
+        <v>6.455973273472851e-06</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004060468045050066</v>
+        <v>0.000423771914268151</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00303695365988592</v>
+        <v>0.01057361142613421</v>
       </c>
       <c r="G6" t="n">
-        <v>0.992838463236156</v>
+        <v>0.9889961606863019</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -659,26 +659,26 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26562.fa</t>
+          <t>even_MAG-GUT57819.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9889961606863019</v>
+        <v>0.992052883308064</v>
       </c>
       <c r="C7" t="n">
-        <v>2.219662231803417e-14</v>
+        <v>2.220262684995794e-14</v>
       </c>
       <c r="D7" t="n">
-        <v>6.455973273472851e-06</v>
+        <v>2.665606419044108e-06</v>
       </c>
       <c r="E7" t="n">
-        <v>0.000423771914268151</v>
+        <v>0.002727354289266675</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01057361142613421</v>
+        <v>0.005217096796228156</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9889961606863019</v>
+        <v>0.992052883308064</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -694,26 +694,26 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57819.fa</t>
+          <t>even_MAG-GUT59296.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.992052883308064</v>
+        <v>0.9878261862907881</v>
       </c>
       <c r="C8" t="n">
-        <v>2.220262684995794e-14</v>
+        <v>2.219642920141404e-14</v>
       </c>
       <c r="D8" t="n">
-        <v>2.665606419044108e-06</v>
+        <v>4.642386291621516e-06</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002727354289266675</v>
+        <v>0.0005998891471281475</v>
       </c>
       <c r="F8" t="n">
-        <v>0.005217096796228156</v>
+        <v>0.01156928217577002</v>
       </c>
       <c r="G8" t="n">
-        <v>0.992052883308064</v>
+        <v>0.9878261862907881</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -729,26 +729,26 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59296.fa</t>
+          <t>even_MAG-GUT62293.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9878261862907881</v>
+        <v>0.9933127155880676</v>
       </c>
       <c r="C9" t="n">
-        <v>2.219642920141404e-14</v>
+        <v>2.220189737170077e-14</v>
       </c>
       <c r="D9" t="n">
-        <v>4.642386291621516e-06</v>
+        <v>5.594891042665874e-06</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0005998891471281475</v>
+        <v>0.002007962971418063</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01156928217577002</v>
+        <v>0.00467372654944956</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9878261862907881</v>
+        <v>0.9933127155880676</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -764,26 +764,26 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62293.fa</t>
+          <t>even_MAG-GUT8776.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9933127155880676</v>
+        <v>0.9914173972528658</v>
       </c>
       <c r="C10" t="n">
-        <v>2.220189737170077e-14</v>
+        <v>2.2201460847058e-14</v>
       </c>
       <c r="D10" t="n">
-        <v>5.594891042665874e-06</v>
+        <v>3.643460589003476e-06</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002007962971418063</v>
+        <v>0.002074530384724875</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00467372654944956</v>
+        <v>0.006504428901798169</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9933127155880676</v>
+        <v>0.9914173972528658</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -799,26 +799,26 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT8776.fa</t>
+          <t>even_MAG-GUT9228.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9914173972528658</v>
+        <v>0.9664456232222292</v>
       </c>
       <c r="C11" t="n">
-        <v>2.2201460847058e-14</v>
+        <v>2.2186422499899e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>3.643460589003476e-06</v>
+        <v>2.328107299735218e-06</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002074530384724875</v>
+        <v>0.03303447311656346</v>
       </c>
       <c r="F11" t="n">
-        <v>0.006504428901798169</v>
+        <v>0.0005175755538853682</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9914173972528658</v>
+        <v>0.9664456232222292</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -826,41 +826,6 @@
         </is>
       </c>
       <c r="I11" t="inlineStr">
-        <is>
-          <t>s__Slackia_A isoflavoniconvertens</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9228.fa</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9664456232222292</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.2186422499899e-14</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2.328107299735218e-06</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.03303447311656346</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.0005175755538853682</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.9664456232222292</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>s__Slackia_A isoflavoniconvertens</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
         <is>
           <t>s__Slackia_A isoflavoniconvertens</t>
         </is>

--- a/outputs-HGR-r202/g__Slackia_A.xlsx
+++ b/outputs-HGR-r202/g__Slackia_A.xlsx
@@ -512,7 +512,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>s__Slackia_A piriformis</t>
+          <t>s__Slackia_A piriformis(reject)</t>
         </is>
       </c>
     </row>
